--- a/biology/Origine et évolution du vivant/Chlorophyta_(classification_phylogénétique)/Chlorophyta_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Chlorophyta_(classification_phylogénétique)/Chlorophyta_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Chlorophyta stricto sensu (Chlorophytes, Algues vertes), c'est-à-dire un cladogramme mettant en  lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -656,7 +670,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -674,7 +688,9 @@
           <t>Débat scientifique relatif à la phylogénie des Chlorophyta</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il s'agit ici des Chlorophytes au sens strict, c'est-à-dire ne comportant pas les algues charophytes, phylogénétiquement plus proches des Embryophytes. Le cladogramme présenté ici suit, pour les niveaux supérieurs, l'article de Lewis et McCourt (2004) cité en bas de page. Les Prasinophycées sont paraphylétiques : elles comportaient les groupes qui figurent à la base de l'arbre, des Pédinophycées aux Chlorodendrales, plus les Mésostigmatophycées sans doute plus proches des Charophytes.
 En attendant mieux, la liste des ordres et familles du « groupe chlorophyte » (les Ulvophyta de Lecointre et Le Guyader) est classique et indicative, les taxons des Chlorophycées, notamment, devant être largement paraphylétiques.
@@ -691,7 +707,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -711,22 +727,129 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Louise A. Lewis, Richard M. McCourt : « Green Algae and the Origin of Land Plants », American Journal of Botany, vol. 91, n°10, 2004, pp. 1535–1556
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louise A. Lewis, Richard M. McCourt : « Green Algae and the Origin of Land Plants », American Journal of Botany, vol. 91, n°10, 2004, pp. 1535–1556
 Bruno de Reviers : Biologie et phylogénie des algues. Tome 2, Belin (Belin Sup Sciences), Paris, 2003,  (ISBN 2-7011-3512-5)
-Guillaume Lecointre et Hervé Le Guyader, Classification phylogénétique du vivant, Belin, Paris, 2001-2006³,  (ISBN 2-7011-4273-3)
-Autres sources bibliographiques
-J. Cabioc'h, J.Y. Floc'h, A. Le Toquin et C.F. Boudouresque, Guide des algues des mers d'Europe, Delachaux et Niestlé, 2006,  (ISBN 260301384X).
-Sources internet
-Algaebase.org
+Guillaume Lecointre et Hervé Le Guyader, Classification phylogénétique du vivant, Belin, Paris, 2001-2006³,  (ISBN 2-7011-4273-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J. Cabioc'h, J.Y. Floc'h, A. Le Toquin et C.F. Boudouresque, Guide des algues des mers d'Europe, Delachaux et Niestlé, 2006,  (ISBN 260301384X).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Algaebase.org
 Mikko's Phylogeny Archive
 The Taxonomicon
 Palaeos.org
 Micro*scope
 NCBI Taxonomy Browser
-The Tree of Life Web Project
-Liens internes
-Arbre phylogénétique
+The Tree of Life Web Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlorophyta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Chlorophyta
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
